--- a/www.eia.gov/forecasts/steo/xls/Fig19.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig19.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>U.S. Working Natural Gas in Storage
@@ -66,7 +66,7 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Note:  Colored band around storage levels represents the range between the minimum and maximum from Jan. 2012 - Dec. 2016.</t>
@@ -1033,7 +1033,7 @@
                   <c:v>437.23100000000022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>556.11814289999984</c:v>
+                  <c:v>560.01200000000017</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>785.08300000000008</c:v>
@@ -1069,7 +1069,7 @@
                   <c:v>437.23100000000022</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>556.11814289999984</c:v>
+                  <c:v>560.01200000000017</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>785.08300000000008</c:v>
@@ -1105,7 +1105,7 @@
                   <c:v>437.23100000000022</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>556.11814289999984</c:v>
+                  <c:v>560.01200000000017</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>785.08300000000008</c:v>
@@ -1141,7 +1141,7 @@
                   <c:v>437.23100000000022</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>556.11814289999984</c:v>
+                  <c:v>560.01200000000017</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>785.08300000000008</c:v>
@@ -1177,7 +1177,7 @@
                   <c:v>437.23100000000022</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>556.11814289999984</c:v>
+                  <c:v>560.01200000000017</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>785.08300000000008</c:v>
@@ -1213,7 +1213,7 @@
                   <c:v>437.23100000000022</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>556.11814289999984</c:v>
+                  <c:v>560.01200000000017</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>785.08300000000008</c:v>
@@ -1230,8 +1230,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446182224"/>
-        <c:axId val="690122816"/>
+        <c:axId val="592525360"/>
+        <c:axId val="592524240"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1286,10 +1286,10 @@
                   <c:v>-1.1581217315068892E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.8554717186518594E-2</c:v>
+                  <c:v>-3.8754345998481932E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.12135471717219659</c:v>
+                  <c:v>-0.12122220135648443</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.25381365130558842</c:v>
@@ -1322,10 +1322,10 @@
                   <c:v>-7.1068983175987199E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.6147290176430302E-2</c:v>
+                  <c:v>-8.6337037148028872E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-4.4940124885318067E-2</c:v>
+                  <c:v>-4.479608434827953E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-6.3860246232090967E-2</c:v>
@@ -1358,10 +1358,10 @@
                   <c:v>2.300986006644079E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9400127386467485E-2</c:v>
+                  <c:v>4.9182236150794312E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.11734260251251838</c:v>
+                  <c:v>0.11751111825976679</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.14328327544501618</c:v>
@@ -1394,82 +1394,82 @@
                   <c:v>4.2152892349685667E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.2154328640289691E-2</c:v>
+                  <c:v>6.2971959624726459E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1288108077163184E-2</c:v>
+                  <c:v>1.0686537203991264E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2.0491301246666427E-2</c:v>
+                  <c:v>4.5555041167896659E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.6031867947869491E-2</c:v>
+                  <c:v>4.6272801247133177E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.3235908576794704E-2</c:v>
+                  <c:v>3.6860725510687642E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3.9094706027628101E-2</c:v>
+                  <c:v>1.621328655192289E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-4.6487551378358583E-2</c:v>
+                  <c:v>-5.7130112974356217E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-5.2338679897402596E-2</c:v>
+                  <c:v>-2.0646487815926595E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-5.4995125901303954E-2</c:v>
+                  <c:v>-2.9032381935316987E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-5.6636075568384681E-2</c:v>
+                  <c:v>-3.4833726047233449E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-5.344511635039173E-2</c:v>
+                  <c:v>-3.3797110945004372E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-5.0303098226944787E-2</c:v>
+                  <c:v>-3.4023040105669033E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-4.3198558469248916E-2</c:v>
+                  <c:v>-2.4982752514229545E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-6.7130243866202033E-2</c:v>
+                  <c:v>-4.4305288371471296E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.10096135954847119</c:v>
+                  <c:v>-6.8483687899274392E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.12107621113982681</c:v>
+                  <c:v>-7.3171057144786222E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.1366619577357292</c:v>
+                  <c:v>-6.8751758093823723E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.13395610218403897</c:v>
+                  <c:v>-6.2892018972980024E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.12113761576360593</c:v>
+                  <c:v>-5.6645491037082385E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.11174134318137541</c:v>
+                  <c:v>-4.9977482327372424E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.10738343426232022</c:v>
+                  <c:v>-4.5337875755283141E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.10766712902303333</c:v>
+                  <c:v>-5.0976420944053413E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-9.7056305201060344E-2</c:v>
+                  <c:v>-4.5732733706899342E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-8.8883591304845133E-2</c:v>
+                  <c:v>-4.4897214670028718E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-8.145011432056648E-2</c:v>
+                  <c:v>-3.9409425184411262E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.10791915105133099</c:v>
+                  <c:v>-6.3949594999597736E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,8 +1484,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="80"/>
-        <c:axId val="690122256"/>
-        <c:axId val="621103744"/>
+        <c:axId val="592542720"/>
+        <c:axId val="592533760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1876,82 +1876,82 @@
                   <c:v>4024.5010000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3982.9861428999998</c:v>
+                  <c:v>3986.88</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3326.1584286000002</c:v>
+                  <c:v>3323.6785713999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2526.819</c:v>
+                  <c:v>2697.1974286</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1941.6679999999999</c:v>
+                  <c:v>2085.8119999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1745.2239999999999</c:v>
+                  <c:v>1871.7639999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1919.7260000000001</c:v>
+                  <c:v>2030.222</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2283.9189999999999</c:v>
+                  <c:v>2381.585</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2580.6660000000002</c:v>
+                  <c:v>2666.97</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2805.4870000000001</c:v>
+                  <c:v>2882.5639999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3035.6170000000002</c:v>
+                  <c:v>3105.7739999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3366.6570000000002</c:v>
+                  <c:v>3436.54</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3667.462</c:v>
+                  <c:v>3730.3310000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3587.922</c:v>
+                  <c:v>3656.989</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3068.2379999999998</c:v>
+                  <c:v>3142.8359999999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2319.232</c:v>
+                  <c:v>2403.0140000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1752.191</c:v>
+                  <c:v>1847.693</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1558.5170000000001</c:v>
+                  <c:v>1681.11</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1730.2090000000001</c:v>
+                  <c:v>1872.183</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2105.1120000000001</c:v>
+                  <c:v>2259.5880000000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2418.9009999999998</c:v>
+                  <c:v>2587.096</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2649.9589999999998</c:v>
+                  <c:v>2834.1570000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2871.4059999999999</c:v>
+                  <c:v>3053.8290000000002</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3211.5430000000001</c:v>
+                  <c:v>3394.0880000000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3518.4749999999999</c:v>
+                  <c:v>3688.3380000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3444.482</c:v>
+                  <c:v>3602.8789999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2934.0819999999999</c:v>
+                  <c:v>3078.2350000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,8 +1968,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446182224"/>
-        <c:axId val="690122816"/>
+        <c:axId val="592525360"/>
+        <c:axId val="592524240"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2055,10 +2055,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>48.5</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.5</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,11 +2088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="690122256"/>
-        <c:axId val="621103744"/>
+        <c:axId val="592542720"/>
+        <c:axId val="592533760"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="446182224"/>
+        <c:axId val="592525360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2109,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="690122816"/>
+        <c:crossAx val="592524240"/>
         <c:crossesAt val="-4000"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2120,7 +2120,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="690122816"/>
+        <c:axId val="592524240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2148,12 +2148,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446182224"/>
+        <c:crossAx val="592525360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="690122256"/>
+        <c:axId val="592542720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,7 +2169,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="621103744"/>
+        <c:crossAx val="592533760"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2178,7 +2178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="621103744"/>
+        <c:axId val="592533760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2195,7 +2195,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="690122256"/>
+        <c:crossAx val="592542720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2224,7 +2224,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31126596980255516"/>
+          <c:x val="0.33449477351916379"/>
           <c:y val="0.62929102203933052"/>
           <c:w val="0.30980255516842714"/>
           <c:h val="0.12673158458742953"/>
@@ -2376,7 +2376,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2712,10 +2712,10 @@
             <v>3426.8679999999999</v>
           </cell>
           <cell r="E50">
-            <v>556.11814289999984</v>
+            <v>560.01200000000017</v>
           </cell>
           <cell r="G50">
-            <v>-3.8554717186518594E-2</v>
+            <v>-3.8754345998481932E-2</v>
           </cell>
         </row>
         <row r="51">
@@ -2732,7 +2732,7 @@
             <v>785.08300000000008</v>
           </cell>
           <cell r="G51">
-            <v>-0.12135471717219659</v>
+            <v>-0.12122220135648443</v>
           </cell>
         </row>
         <row r="52">
@@ -2916,10 +2916,10 @@
             <v>3426.8679999999999</v>
           </cell>
           <cell r="E62">
-            <v>556.11814289999984</v>
+            <v>560.01200000000017</v>
           </cell>
           <cell r="G62">
-            <v>-8.6147290176430302E-2</v>
+            <v>-8.6337037148028872E-2</v>
           </cell>
         </row>
         <row r="63">
@@ -2936,7 +2936,7 @@
             <v>785.08300000000008</v>
           </cell>
           <cell r="G63">
-            <v>-4.4940124885318067E-2</v>
+            <v>-4.479608434827953E-2</v>
           </cell>
         </row>
         <row r="64">
@@ -3120,10 +3120,10 @@
             <v>3426.8679999999999</v>
           </cell>
           <cell r="E74">
-            <v>556.11814289999984</v>
+            <v>560.01200000000017</v>
           </cell>
           <cell r="G74">
-            <v>4.9400127386467485E-2</v>
+            <v>4.9182236150794312E-2</v>
           </cell>
         </row>
         <row r="75">
@@ -3140,7 +3140,7 @@
             <v>785.08300000000008</v>
           </cell>
           <cell r="G75">
-            <v>0.11734260251251838</v>
+            <v>0.11751111825976679</v>
           </cell>
         </row>
         <row r="76">
@@ -3318,16 +3318,16 @@
             <v>42675</v>
           </cell>
           <cell r="B86">
-            <v>3982.9861428999998</v>
+            <v>3986.88</v>
           </cell>
           <cell r="C86">
             <v>3426.8679999999999</v>
           </cell>
           <cell r="E86">
-            <v>556.11814289999984</v>
+            <v>560.01200000000017</v>
           </cell>
           <cell r="G86">
-            <v>6.2154328640289691E-2</v>
+            <v>6.2971959624726459E-2</v>
           </cell>
         </row>
         <row r="87">
@@ -3335,7 +3335,7 @@
             <v>42705</v>
           </cell>
           <cell r="B87">
-            <v>3326.1584286000002</v>
+            <v>3323.6785713999998</v>
           </cell>
           <cell r="C87">
             <v>2889.8919999999998</v>
@@ -3344,7 +3344,7 @@
             <v>785.08300000000008</v>
           </cell>
           <cell r="G87">
-            <v>1.1288108077163184E-2</v>
+            <v>1.0686537203991264E-2</v>
           </cell>
         </row>
         <row r="88">
@@ -3352,7 +3352,7 @@
             <v>42736</v>
           </cell>
           <cell r="B88">
-            <v>2526.819</v>
+            <v>2697.1974286</v>
           </cell>
           <cell r="C88">
             <v>1924.922</v>
@@ -3361,7 +3361,7 @@
             <v>1024.3829999999998</v>
           </cell>
           <cell r="G88">
-            <v>-2.0491301246666427E-2</v>
+            <v>4.5555041167896659E-2</v>
           </cell>
         </row>
         <row r="89">
@@ -3369,7 +3369,7 @@
             <v>42767</v>
           </cell>
           <cell r="B89">
-            <v>1941.6679999999999</v>
+            <v>2085.8119999999999</v>
           </cell>
           <cell r="C89">
             <v>1199.9870000000001</v>
@@ -3378,7 +3378,7 @@
             <v>1345.6179999999999</v>
           </cell>
           <cell r="G89">
-            <v>-2.6031867947869491E-2</v>
+            <v>4.6272801247133177E-2</v>
           </cell>
         </row>
         <row r="90">
@@ -3386,7 +3386,7 @@
             <v>42795</v>
           </cell>
           <cell r="B90">
-            <v>1745.2239999999999</v>
+            <v>1871.7639999999999</v>
           </cell>
           <cell r="C90">
             <v>857.31</v>
@@ -3395,7 +3395,7 @@
             <v>1638.3830000000003</v>
           </cell>
           <cell r="G90">
-            <v>-3.3235908576794704E-2</v>
+            <v>3.6860725510687642E-2</v>
           </cell>
         </row>
         <row r="91">
@@ -3403,7 +3403,7 @@
             <v>42826</v>
           </cell>
           <cell r="B91">
-            <v>1919.7260000000001</v>
+            <v>2030.222</v>
           </cell>
           <cell r="C91">
             <v>1066.3800000000001</v>
@@ -3412,7 +3412,7 @@
             <v>1588.0329999999999</v>
           </cell>
           <cell r="G91">
-            <v>-3.9094706027628101E-2</v>
+            <v>1.621328655192289E-2</v>
           </cell>
         </row>
         <row r="92">
@@ -3420,7 +3420,7 @@
             <v>42856</v>
           </cell>
           <cell r="B92">
-            <v>2283.9189999999999</v>
+            <v>2381.585</v>
           </cell>
           <cell r="C92">
             <v>1547.944</v>
@@ -3429,7 +3429,7 @@
             <v>1427.5459999999998</v>
           </cell>
           <cell r="G92">
-            <v>-4.6487551378358583E-2</v>
+            <v>-5.7130112974356217E-3</v>
           </cell>
         </row>
         <row r="93">
@@ -3437,7 +3437,7 @@
             <v>42887</v>
           </cell>
           <cell r="B93">
-            <v>2580.6660000000002</v>
+            <v>2666.97</v>
           </cell>
           <cell r="C93">
             <v>2005.4749999999999</v>
@@ -3446,7 +3446,7 @@
             <v>1191.1120000000001</v>
           </cell>
           <cell r="G93">
-            <v>-5.2338679897402596E-2</v>
+            <v>-2.0646487815926595E-2</v>
           </cell>
         </row>
         <row r="94">
@@ -3454,7 +3454,7 @@
             <v>42917</v>
           </cell>
           <cell r="B94">
-            <v>2805.4870000000001</v>
+            <v>2882.5639999999999</v>
           </cell>
           <cell r="C94">
             <v>2399.9740000000002</v>
@@ -3463,7 +3463,7 @@
             <v>929.06299999999965</v>
           </cell>
           <cell r="G94">
-            <v>-5.4995125901303954E-2</v>
+            <v>-2.9032381935316987E-2</v>
           </cell>
         </row>
         <row r="95">
@@ -3471,7 +3471,7 @@
             <v>42948</v>
           </cell>
           <cell r="B95">
-            <v>3035.6170000000002</v>
+            <v>3105.7739999999999</v>
           </cell>
           <cell r="C95">
             <v>2768.3980000000001</v>
@@ -3480,7 +3480,7 @@
             <v>684.48599999999988</v>
           </cell>
           <cell r="G95">
-            <v>-5.6636075568384681E-2</v>
+            <v>-3.4833726047233449E-2</v>
           </cell>
         </row>
         <row r="96">
@@ -3488,7 +3488,7 @@
             <v>42979</v>
           </cell>
           <cell r="B96">
-            <v>3366.6570000000002</v>
+            <v>3436.54</v>
           </cell>
           <cell r="C96">
             <v>3187.0160000000001</v>
@@ -3497,7 +3497,7 @@
             <v>529.76499999999987</v>
           </cell>
           <cell r="G96">
-            <v>-5.344511635039173E-2</v>
+            <v>-3.3797110945004372E-2</v>
           </cell>
         </row>
         <row r="97">
@@ -3505,7 +3505,7 @@
             <v>43009</v>
           </cell>
           <cell r="B97">
-            <v>3667.462</v>
+            <v>3730.3310000000001</v>
           </cell>
           <cell r="C97">
             <v>3587.27</v>
@@ -3514,7 +3514,7 @@
             <v>437.23100000000022</v>
           </cell>
           <cell r="G97">
-            <v>-5.0303098226944787E-2</v>
+            <v>-3.4023040105669033E-2</v>
           </cell>
         </row>
         <row r="98">
@@ -3522,16 +3522,16 @@
             <v>43040</v>
           </cell>
           <cell r="B98">
-            <v>3587.922</v>
+            <v>3656.989</v>
           </cell>
           <cell r="C98">
             <v>3426.8679999999999</v>
           </cell>
           <cell r="E98">
-            <v>556.11814289999984</v>
+            <v>560.01200000000017</v>
           </cell>
           <cell r="G98">
-            <v>-4.3198558469248916E-2</v>
+            <v>-2.4982752514229545E-2</v>
           </cell>
         </row>
         <row r="99">
@@ -3539,7 +3539,7 @@
             <v>43070</v>
           </cell>
           <cell r="B99">
-            <v>3068.2379999999998</v>
+            <v>3142.8359999999998</v>
           </cell>
           <cell r="C99">
             <v>2889.8919999999998</v>
@@ -3548,7 +3548,7 @@
             <v>785.08300000000008</v>
           </cell>
           <cell r="G99">
-            <v>-6.7130243866202033E-2</v>
+            <v>-4.4305288371471296E-2</v>
           </cell>
         </row>
         <row r="100">
@@ -3556,7 +3556,7 @@
             <v>43101</v>
           </cell>
           <cell r="B100">
-            <v>2319.232</v>
+            <v>2403.0140000000001</v>
           </cell>
           <cell r="C100">
             <v>1924.922</v>
@@ -3565,7 +3565,7 @@
             <v>1024.3829999999998</v>
           </cell>
           <cell r="G100">
-            <v>-0.10096135954847119</v>
+            <v>-6.8483687899274392E-2</v>
           </cell>
         </row>
         <row r="101">
@@ -3573,7 +3573,7 @@
             <v>43132</v>
           </cell>
           <cell r="B101">
-            <v>1752.191</v>
+            <v>1847.693</v>
           </cell>
           <cell r="C101">
             <v>1199.9870000000001</v>
@@ -3582,7 +3582,7 @@
             <v>1345.6179999999999</v>
           </cell>
           <cell r="G101">
-            <v>-0.12107621113982681</v>
+            <v>-7.3171057144786222E-2</v>
           </cell>
         </row>
         <row r="102">
@@ -3590,7 +3590,7 @@
             <v>43160</v>
           </cell>
           <cell r="B102">
-            <v>1558.5170000000001</v>
+            <v>1681.11</v>
           </cell>
           <cell r="C102">
             <v>857.31</v>
@@ -3599,7 +3599,7 @@
             <v>1638.3830000000003</v>
           </cell>
           <cell r="G102">
-            <v>-0.1366619577357292</v>
+            <v>-6.8751758093823723E-2</v>
           </cell>
         </row>
         <row r="103">
@@ -3607,7 +3607,7 @@
             <v>43191</v>
           </cell>
           <cell r="B103">
-            <v>1730.2090000000001</v>
+            <v>1872.183</v>
           </cell>
           <cell r="C103">
             <v>1066.3800000000001</v>
@@ -3616,7 +3616,7 @@
             <v>1588.0329999999999</v>
           </cell>
           <cell r="G103">
-            <v>-0.13395610218403897</v>
+            <v>-6.2892018972980024E-2</v>
           </cell>
         </row>
         <row r="104">
@@ -3624,7 +3624,7 @@
             <v>43221</v>
           </cell>
           <cell r="B104">
-            <v>2105.1120000000001</v>
+            <v>2259.5880000000002</v>
           </cell>
           <cell r="C104">
             <v>1547.944</v>
@@ -3633,7 +3633,7 @@
             <v>1427.5459999999998</v>
           </cell>
           <cell r="G104">
-            <v>-0.12113761576360593</v>
+            <v>-5.6645491037082385E-2</v>
           </cell>
         </row>
         <row r="105">
@@ -3641,7 +3641,7 @@
             <v>43252</v>
           </cell>
           <cell r="B105">
-            <v>2418.9009999999998</v>
+            <v>2587.096</v>
           </cell>
           <cell r="C105">
             <v>2005.4749999999999</v>
@@ -3650,7 +3650,7 @@
             <v>1191.1120000000001</v>
           </cell>
           <cell r="G105">
-            <v>-0.11174134318137541</v>
+            <v>-4.9977482327372424E-2</v>
           </cell>
         </row>
         <row r="106">
@@ -3658,7 +3658,7 @@
             <v>43282</v>
           </cell>
           <cell r="B106">
-            <v>2649.9589999999998</v>
+            <v>2834.1570000000002</v>
           </cell>
           <cell r="C106">
             <v>2399.9740000000002</v>
@@ -3667,7 +3667,7 @@
             <v>929.06299999999965</v>
           </cell>
           <cell r="G106">
-            <v>-0.10738343426232022</v>
+            <v>-4.5337875755283141E-2</v>
           </cell>
         </row>
         <row r="107">
@@ -3675,7 +3675,7 @@
             <v>43313</v>
           </cell>
           <cell r="B107">
-            <v>2871.4059999999999</v>
+            <v>3053.8290000000002</v>
           </cell>
           <cell r="C107">
             <v>2768.3980000000001</v>
@@ -3684,7 +3684,7 @@
             <v>684.48599999999988</v>
           </cell>
           <cell r="G107">
-            <v>-0.10766712902303333</v>
+            <v>-5.0976420944053413E-2</v>
           </cell>
         </row>
         <row r="108">
@@ -3692,7 +3692,7 @@
             <v>43344</v>
           </cell>
           <cell r="B108">
-            <v>3211.5430000000001</v>
+            <v>3394.0880000000002</v>
           </cell>
           <cell r="C108">
             <v>3187.0160000000001</v>
@@ -3701,7 +3701,7 @@
             <v>529.76499999999987</v>
           </cell>
           <cell r="G108">
-            <v>-9.7056305201060344E-2</v>
+            <v>-4.5732733706899342E-2</v>
           </cell>
         </row>
         <row r="109">
@@ -3709,7 +3709,7 @@
             <v>43374</v>
           </cell>
           <cell r="B109">
-            <v>3518.4749999999999</v>
+            <v>3688.3380000000002</v>
           </cell>
           <cell r="C109">
             <v>3587.27</v>
@@ -3718,7 +3718,7 @@
             <v>437.23100000000022</v>
           </cell>
           <cell r="G109">
-            <v>-8.8883591304845133E-2</v>
+            <v>-4.4897214670028718E-2</v>
           </cell>
         </row>
         <row r="110">
@@ -3726,16 +3726,16 @@
             <v>43405</v>
           </cell>
           <cell r="B110">
-            <v>3444.482</v>
+            <v>3602.8789999999999</v>
           </cell>
           <cell r="C110">
             <v>3426.8679999999999</v>
           </cell>
           <cell r="E110">
-            <v>556.11814289999984</v>
+            <v>560.01200000000017</v>
           </cell>
           <cell r="G110">
-            <v>-8.145011432056648E-2</v>
+            <v>-3.9409425184411262E-2</v>
           </cell>
         </row>
         <row r="111">
@@ -3743,7 +3743,7 @@
             <v>43435</v>
           </cell>
           <cell r="B111">
-            <v>2934.0819999999999</v>
+            <v>3078.2350000000001</v>
           </cell>
           <cell r="C111">
             <v>2889.8919999999998</v>
@@ -3752,7 +3752,7 @@
             <v>785.08300000000008</v>
           </cell>
           <cell r="G111">
-            <v>-0.10791915105133099</v>
+            <v>-6.3949594999597736E-2</v>
           </cell>
         </row>
         <row r="116">
@@ -3762,7 +3762,7 @@
         </row>
         <row r="117">
           <cell r="A117">
-            <v>48.5</v>
+            <v>49.5</v>
           </cell>
           <cell r="B117">
             <v>-0.6</v>
@@ -3770,7 +3770,7 @@
         </row>
         <row r="118">
           <cell r="A118">
-            <v>48.5</v>
+            <v>49.5</v>
           </cell>
           <cell r="B118">
             <v>1.2</v>
@@ -4421,19 +4421,19 @@
       </c>
       <c r="D38" s="13">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3982.9861428999998</v>
+        <v>3986.88</v>
       </c>
       <c r="E38" s="13">
         <f t="shared" si="0"/>
-        <v>556.11814289999984</v>
+        <v>560.01200000000017</v>
       </c>
       <c r="F38" s="13">
         <f>AVERAGE($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3749.9128285799998</v>
+        <v>3750.6915999999997</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="1"/>
-        <v>1.3147551336192054E-2</v>
+        <v>1.2937187370990699E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4457,11 +4457,11 @@
       </c>
       <c r="F39" s="13">
         <f>AVERAGE($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>3289.0314857200001</v>
+        <v>3288.5355142799999</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="1"/>
-        <v>3.7664131467832984E-2</v>
+        <v>3.7820630241005793E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4757,19 +4757,19 @@
       </c>
       <c r="D50" s="13">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3982.9861428999998</v>
+        <v>3986.88</v>
       </c>
       <c r="E50" s="13">
         <f t="shared" si="0"/>
-        <v>556.11814289999984</v>
+        <v>560.01200000000017</v>
       </c>
       <c r="F50" s="13">
         <f>AVERAGE($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3749.9128285799998</v>
+        <v>3750.6915999999997</v>
       </c>
       <c r="G50" s="14">
         <f t="shared" si="1"/>
-        <v>-3.8554717186518594E-2</v>
+        <v>-3.8754345998481932E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4793,11 +4793,11 @@
       </c>
       <c r="F51" s="13">
         <f>AVERAGE($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>3289.0314857200001</v>
+        <v>3288.5355142799999</v>
       </c>
       <c r="G51" s="14">
         <f t="shared" si="1"/>
-        <v>-0.12135471717219659</v>
+        <v>-0.12122220135648443</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5093,19 +5093,19 @@
       </c>
       <c r="D62" s="13">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3982.9861428999998</v>
+        <v>3986.88</v>
       </c>
       <c r="E62" s="13">
         <f t="shared" si="0"/>
-        <v>556.11814289999984</v>
+        <v>560.01200000000017</v>
       </c>
       <c r="F62" s="13">
         <f>AVERAGE($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3749.9128285799998</v>
+        <v>3750.6915999999997</v>
       </c>
       <c r="G62" s="14">
         <f t="shared" si="1"/>
-        <v>-8.6147290176430302E-2</v>
+        <v>-8.6337037148028872E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5129,11 +5129,11 @@
       </c>
       <c r="F63" s="13">
         <f>AVERAGE($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>3289.0314857200001</v>
+        <v>3288.5355142799999</v>
       </c>
       <c r="G63" s="14">
         <f t="shared" si="1"/>
-        <v>-4.4940124885318067E-2</v>
+        <v>-4.479608434827953E-2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5429,19 +5429,19 @@
       </c>
       <c r="D74" s="13">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3982.9861428999998</v>
+        <v>3986.88</v>
       </c>
       <c r="E74" s="13">
         <f t="shared" si="0"/>
-        <v>556.11814289999984</v>
+        <v>560.01200000000017</v>
       </c>
       <c r="F74" s="13">
         <f>AVERAGE($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3749.9128285799998</v>
+        <v>3750.6915999999997</v>
       </c>
       <c r="G74" s="14">
         <f t="shared" si="1"/>
-        <v>4.9400127386467485E-2</v>
+        <v>4.9182236150794312E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5465,11 +5465,11 @@
       </c>
       <c r="F75" s="13">
         <f>AVERAGE($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>3289.0314857200001</v>
+        <v>3288.5355142799999</v>
       </c>
       <c r="G75" s="14">
         <f t="shared" si="1"/>
-        <v>0.11734260251251838</v>
+        <v>0.11751111825976679</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5757,7 +5757,7 @@
         <v>42675</v>
       </c>
       <c r="B86" s="13">
-        <v>3982.9861428999998</v>
+        <v>3986.88</v>
       </c>
       <c r="C86" s="13">
         <f>MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
@@ -5765,19 +5765,19 @@
       </c>
       <c r="D86" s="13">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3982.9861428999998</v>
+        <v>3986.88</v>
       </c>
       <c r="E86" s="13">
         <f t="shared" si="0"/>
-        <v>556.11814289999984</v>
+        <v>560.01200000000017</v>
       </c>
       <c r="F86" s="13">
         <f>AVERAGE($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3749.9128285799998</v>
+        <v>3750.6915999999997</v>
       </c>
       <c r="G86" s="14">
         <f t="shared" si="1"/>
-        <v>6.2154328640289691E-2</v>
+        <v>6.2971959624726459E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5785,7 +5785,7 @@
         <v>42705</v>
       </c>
       <c r="B87" s="13">
-        <v>3326.1584286000002</v>
+        <v>3323.6785713999998</v>
       </c>
       <c r="C87" s="13">
         <f>MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
@@ -5801,11 +5801,11 @@
       </c>
       <c r="F87" s="13">
         <f>AVERAGE($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>3289.0314857200001</v>
+        <v>3288.5355142799999</v>
       </c>
       <c r="G87" s="14">
         <f t="shared" si="1"/>
-        <v>1.1288108077163184E-2</v>
+        <v>1.0686537203991264E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5813,7 +5813,7 @@
         <v>42736</v>
       </c>
       <c r="B88" s="13">
-        <v>2526.819</v>
+        <v>2697.1974286</v>
       </c>
       <c r="C88" s="13">
         <f>MIN($B$28,$B$40,$B$52,$B$64,$B$76)</f>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="G88" s="14">
         <f t="shared" si="1"/>
-        <v>-2.0491301246666427E-2</v>
+        <v>4.5555041167896659E-2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -5841,7 +5841,7 @@
         <v>42767</v>
       </c>
       <c r="B89" s="13">
-        <v>1941.6679999999999</v>
+        <v>2085.8119999999999</v>
       </c>
       <c r="C89" s="13">
         <f>MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="G89" s="14">
         <f t="shared" si="1"/>
-        <v>-2.6031867947869491E-2</v>
+        <v>4.6272801247133177E-2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5869,7 +5869,7 @@
         <v>42795</v>
       </c>
       <c r="B90" s="13">
-        <v>1745.2239999999999</v>
+        <v>1871.7639999999999</v>
       </c>
       <c r="C90" s="13">
         <f>MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="G90" s="14">
         <f t="shared" si="1"/>
-        <v>-3.3235908576794704E-2</v>
+        <v>3.6860725510687642E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5897,7 +5897,7 @@
         <v>42826</v>
       </c>
       <c r="B91" s="13">
-        <v>1919.7260000000001</v>
+        <v>2030.222</v>
       </c>
       <c r="C91" s="13">
         <f>MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="G91" s="14">
         <f t="shared" si="1"/>
-        <v>-3.9094706027628101E-2</v>
+        <v>1.621328655192289E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5925,7 +5925,7 @@
         <v>42856</v>
       </c>
       <c r="B92" s="13">
-        <v>2283.9189999999999</v>
+        <v>2381.585</v>
       </c>
       <c r="C92" s="13">
         <f>MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="G92" s="14">
         <f t="shared" ref="G92:G111" si="3">B92/F92-1</f>
-        <v>-4.6487551378358583E-2</v>
+        <v>-5.7130112974356217E-3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5953,7 +5953,7 @@
         <v>42887</v>
       </c>
       <c r="B93" s="13">
-        <v>2580.6660000000002</v>
+        <v>2666.97</v>
       </c>
       <c r="C93" s="13">
         <f>MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="G93" s="14">
         <f t="shared" si="3"/>
-        <v>-5.2338679897402596E-2</v>
+        <v>-2.0646487815926595E-2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5981,7 +5981,7 @@
         <v>42917</v>
       </c>
       <c r="B94" s="13">
-        <v>2805.4870000000001</v>
+        <v>2882.5639999999999</v>
       </c>
       <c r="C94" s="13">
         <f>MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="G94" s="14">
         <f t="shared" si="3"/>
-        <v>-5.4995125901303954E-2</v>
+        <v>-2.9032381935316987E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -6009,7 +6009,7 @@
         <v>42948</v>
       </c>
       <c r="B95" s="13">
-        <v>3035.6170000000002</v>
+        <v>3105.7739999999999</v>
       </c>
       <c r="C95" s="13">
         <f>MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="G95" s="14">
         <f t="shared" si="3"/>
-        <v>-5.6636075568384681E-2</v>
+        <v>-3.4833726047233449E-2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -6037,7 +6037,7 @@
         <v>42979</v>
       </c>
       <c r="B96" s="13">
-        <v>3366.6570000000002</v>
+        <v>3436.54</v>
       </c>
       <c r="C96" s="13">
         <f>MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="G96" s="14">
         <f t="shared" si="3"/>
-        <v>-5.344511635039173E-2</v>
+        <v>-3.3797110945004372E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -6065,7 +6065,7 @@
         <v>43009</v>
       </c>
       <c r="B97" s="13">
-        <v>3667.462</v>
+        <v>3730.3310000000001</v>
       </c>
       <c r="C97" s="13">
         <f>MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="G97" s="14">
         <f t="shared" si="3"/>
-        <v>-5.0303098226944787E-2</v>
+        <v>-3.4023040105669033E-2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -6093,7 +6093,7 @@
         <v>43040</v>
       </c>
       <c r="B98" s="13">
-        <v>3587.922</v>
+        <v>3656.989</v>
       </c>
       <c r="C98" s="13">
         <f>MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
@@ -6101,19 +6101,19 @@
       </c>
       <c r="D98" s="13">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3982.9861428999998</v>
+        <v>3986.88</v>
       </c>
       <c r="E98" s="13">
         <f t="shared" si="2"/>
-        <v>556.11814289999984</v>
+        <v>560.01200000000017</v>
       </c>
       <c r="F98" s="13">
         <f>AVERAGE($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3749.9128285799998</v>
+        <v>3750.6915999999997</v>
       </c>
       <c r="G98" s="14">
         <f t="shared" si="3"/>
-        <v>-4.3198558469248916E-2</v>
+        <v>-2.4982752514229545E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -6121,7 +6121,7 @@
         <v>43070</v>
       </c>
       <c r="B99" s="13">
-        <v>3068.2379999999998</v>
+        <v>3142.8359999999998</v>
       </c>
       <c r="C99" s="13">
         <f>MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
@@ -6137,11 +6137,11 @@
       </c>
       <c r="F99" s="13">
         <f>AVERAGE($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>3289.0314857200001</v>
+        <v>3288.5355142799999</v>
       </c>
       <c r="G99" s="14">
         <f t="shared" si="3"/>
-        <v>-6.7130243866202033E-2</v>
+        <v>-4.4305288371471296E-2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -6149,7 +6149,7 @@
         <v>43101</v>
       </c>
       <c r="B100" s="13">
-        <v>2319.232</v>
+        <v>2403.0140000000001</v>
       </c>
       <c r="C100" s="13">
         <f>MIN($B$28,$B$40,$B$52,$B$64,$B$76)</f>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="G100" s="14">
         <f t="shared" si="3"/>
-        <v>-0.10096135954847119</v>
+        <v>-6.8483687899274392E-2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -6177,7 +6177,7 @@
         <v>43132</v>
       </c>
       <c r="B101" s="13">
-        <v>1752.191</v>
+        <v>1847.693</v>
       </c>
       <c r="C101" s="13">
         <f>MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="G101" s="14">
         <f t="shared" si="3"/>
-        <v>-0.12107621113982681</v>
+        <v>-7.3171057144786222E-2</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
         <v>43160</v>
       </c>
       <c r="B102" s="13">
-        <v>1558.5170000000001</v>
+        <v>1681.11</v>
       </c>
       <c r="C102" s="13">
         <f>MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="G102" s="14">
         <f t="shared" si="3"/>
-        <v>-0.1366619577357292</v>
+        <v>-6.8751758093823723E-2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -6233,7 +6233,7 @@
         <v>43191</v>
       </c>
       <c r="B103" s="13">
-        <v>1730.2090000000001</v>
+        <v>1872.183</v>
       </c>
       <c r="C103" s="13">
         <f>MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="G103" s="14">
         <f t="shared" si="3"/>
-        <v>-0.13395610218403897</v>
+        <v>-6.2892018972980024E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -6261,7 +6261,7 @@
         <v>43221</v>
       </c>
       <c r="B104" s="13">
-        <v>2105.1120000000001</v>
+        <v>2259.5880000000002</v>
       </c>
       <c r="C104" s="13">
         <f>MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="G104" s="14">
         <f t="shared" si="3"/>
-        <v>-0.12113761576360593</v>
+        <v>-5.6645491037082385E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>43252</v>
       </c>
       <c r="B105" s="13">
-        <v>2418.9009999999998</v>
+        <v>2587.096</v>
       </c>
       <c r="C105" s="13">
         <f>MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="G105" s="14">
         <f t="shared" si="3"/>
-        <v>-0.11174134318137541</v>
+        <v>-4.9977482327372424E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -6317,7 +6317,7 @@
         <v>43282</v>
       </c>
       <c r="B106" s="13">
-        <v>2649.9589999999998</v>
+        <v>2834.1570000000002</v>
       </c>
       <c r="C106" s="13">
         <f>MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="G106" s="14">
         <f t="shared" si="3"/>
-        <v>-0.10738343426232022</v>
+        <v>-4.5337875755283141E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -6345,7 +6345,7 @@
         <v>43313</v>
       </c>
       <c r="B107" s="13">
-        <v>2871.4059999999999</v>
+        <v>3053.8290000000002</v>
       </c>
       <c r="C107" s="13">
         <f>MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="G107" s="14">
         <f t="shared" si="3"/>
-        <v>-0.10766712902303333</v>
+        <v>-5.0976420944053413E-2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -6373,7 +6373,7 @@
         <v>43344</v>
       </c>
       <c r="B108" s="13">
-        <v>3211.5430000000001</v>
+        <v>3394.0880000000002</v>
       </c>
       <c r="C108" s="13">
         <f>MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="G108" s="14">
         <f t="shared" si="3"/>
-        <v>-9.7056305201060344E-2</v>
+        <v>-4.5732733706899342E-2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -6401,7 +6401,7 @@
         <v>43374</v>
       </c>
       <c r="B109" s="13">
-        <v>3518.4749999999999</v>
+        <v>3688.3380000000002</v>
       </c>
       <c r="C109" s="13">
         <f>MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="G109" s="14">
         <f t="shared" si="3"/>
-        <v>-8.8883591304845133E-2</v>
+        <v>-4.4897214670028718E-2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -6429,7 +6429,7 @@
         <v>43405</v>
       </c>
       <c r="B110" s="13">
-        <v>3444.482</v>
+        <v>3602.8789999999999</v>
       </c>
       <c r="C110" s="13">
         <f>MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
@@ -6437,19 +6437,19 @@
       </c>
       <c r="D110" s="13">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3982.9861428999998</v>
+        <v>3986.88</v>
       </c>
       <c r="E110" s="13">
         <f t="shared" si="2"/>
-        <v>556.11814289999984</v>
+        <v>560.01200000000017</v>
       </c>
       <c r="F110" s="13">
         <f>AVERAGE($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>3749.9128285799998</v>
+        <v>3750.6915999999997</v>
       </c>
       <c r="G110" s="14">
         <f t="shared" si="3"/>
-        <v>-8.145011432056648E-2</v>
+        <v>-3.9409425184411262E-2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -6457,7 +6457,7 @@
         <v>43435</v>
       </c>
       <c r="B111" s="16">
-        <v>2934.0819999999999</v>
+        <v>3078.2350000000001</v>
       </c>
       <c r="C111" s="16">
         <f>MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
@@ -6473,11 +6473,11 @@
       </c>
       <c r="F111" s="16">
         <f>AVERAGE($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>3289.0314857200001</v>
+        <v>3288.5355142799999</v>
       </c>
       <c r="G111" s="17">
         <f t="shared" si="3"/>
-        <v>-0.10791915105133099</v>
+        <v>-6.3949594999597736E-2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -6509,7 +6509,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="B117" s="20">
         <v>-0.6</v>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="B118" s="20">
         <v>1.2</v>
